--- a/data/s_vals/2022/barlow_joe.xlsx
+++ b/data/s_vals/2022/barlow_joe.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.491783709146979</v>
+        <v>4.358119930609447</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E3" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.030998611749801</v>
+        <v>1.672833113781282</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.016799631930417</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.104894435940285</v>
+        <v>1.242251378316819</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.410416743357174</v>
+        <v>2.960089034096801</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C6" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C7" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E7" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C8" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E8" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C9" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E9" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C10" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1990121036566324</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E11" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.434123898558273</v>
+        <v>0.8034070775528621</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C12" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C13" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E13" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.681612414056641</v>
+        <v>3.56341032713086</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C14" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E14" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E15" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.898943504985691</v>
+        <v>2.214453472130288</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C16" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E16" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C17" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E17" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3.410416743357174</v>
+        <v>2.960089034096801</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C18" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E18" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4.491783709146979</v>
+        <v>4.358119930609447</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C19" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E19" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5.512885315271583</v>
+        <v>5.586269137925634</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C20" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E20" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C21" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E21" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C22" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E22" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C23" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E23" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C24" t="n">
-        <v>9.434403144921294</v>
+        <v>117.745847958593</v>
       </c>
       <c r="D24" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>14.94594981939514</v>
+        <v>134.7628951592011</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2846480661742272</v>
+        <v>0.01293466051926884</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E25" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.372742870184095</v>
+        <v>0.9634143985795411</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D26" t="n">
-        <v>2.263954110880881</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E26" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.805649611698634</v>
+        <v>23.31062546481661</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C27" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D27" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E27" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>5.053373711719856</v>
+        <v>7.143138311642302</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C28" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E28" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>4.491783709146979</v>
+        <v>4.358119930609447</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/barlow_joe.xlsx
+++ b/data/s_vals/2022/barlow_joe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>4.358119930609447</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>1.672833113781282</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>1.242251378316819</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>2.960089034096801</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>0.8034070775528621</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>3.56341032713086</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>2.214453472130288</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,6 +914,9 @@
       <c r="G17" t="n">
         <v>2.960089034096801</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -889,6 +942,9 @@
       <c r="G18" t="n">
         <v>4.358119930609447</v>
       </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -914,6 +970,9 @@
       <c r="G19" t="n">
         <v>5.586269137925634</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -939,6 +998,9 @@
       <c r="G20" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -964,6 +1026,9 @@
       <c r="G21" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -989,6 +1054,9 @@
       <c r="G22" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1014,6 +1082,9 @@
       <c r="G23" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1039,6 +1110,9 @@
       <c r="G24" t="n">
         <v>134.7628951592011</v>
       </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1064,6 +1138,9 @@
       <c r="G25" t="n">
         <v>0.9634143985795411</v>
       </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1089,6 +1166,9 @@
       <c r="G26" t="n">
         <v>23.31062546481661</v>
       </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1114,6 +1194,9 @@
       <c r="G27" t="n">
         <v>7.143138311642302</v>
       </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1138,6 +1221,9 @@
       </c>
       <c r="G28" t="n">
         <v>4.358119930609447</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/barlow_joe.xlsx
+++ b/data/s_vals/2022/barlow_joe.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.358119930609447</v>
+        <v>4.327115817150455</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.672833113781282</v>
+        <v>1.67637130870356</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2917716402565462</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.242251378316819</v>
+        <v>1.276001064745008</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.960089034096801</v>
+        <v>2.964545797025059</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C6" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C7" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -645,22 +645,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C8" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C9" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C10" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -729,22 +729,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04071648406533734</v>
+        <v>0.04103571897497393</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8034070775528621</v>
+        <v>0.8410281280571317</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C12" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C13" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.56341032713086</v>
+        <v>3.536033448013082</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C14" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.214453472130288</v>
+        <v>2.213936997104367</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C16" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C17" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2.960089034096801</v>
+        <v>2.964545797025059</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C18" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4.358119930609447</v>
+        <v>4.327115817150455</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C19" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5.586269137925634</v>
+        <v>5.582307763322248</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C20" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C21" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1037,22 +1037,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C22" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1065,22 +1065,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C23" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1093,22 +1093,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C24" t="n">
-        <v>117.745847958593</v>
+        <v>109.9114832445916</v>
       </c>
       <c r="D24" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E24" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7628951592011</v>
+        <v>130.27102598265</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1121,22 +1121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01293466051926884</v>
+        <v>0.01253208636536152</v>
       </c>
       <c r="C25" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9634143985795411</v>
+        <v>1.000416160599444</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C26" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D26" t="n">
-        <v>22.3905356188092</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>23.31062546481661</v>
+        <v>19.67207418041587</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C27" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D27" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>7.143138311642302</v>
+        <v>6.82939032824165</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C28" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>4.358119930609447</v>
+        <v>4.327115817150455</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
